--- a/src/Input_Files/IngameSmall/cultures/cultures.xlsx
+++ b/src/Input_Files/IngameSmall/cultures/cultures.xlsx
@@ -1,145 +1,459 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\IngameSmall\cultures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0934FEE-8142-4606-BC08-1FBF0F898660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cultures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+  <si>
+    <t>RGB</t>
+  </si>
   <si>
     <t>Culture</t>
   </si>
   <si>
-    <t>RGB</t>
+    <t>(150, 120, 120)</t>
   </si>
   <si>
     <t>japanese</t>
   </si>
   <si>
-    <t>(150, 120, 120)</t>
+    <t>(100, 120, 120)</t>
   </si>
   <si>
     <t>ainu</t>
   </si>
   <si>
-    <t>(100, 120, 120)</t>
+    <t>(44, 76, 214)</t>
   </si>
   <si>
     <t>french</t>
   </si>
   <si>
-    <t>(44, 76, 214)</t>
+    <t>(153, 0, 51)</t>
   </si>
   <si>
     <t>burgundian</t>
   </si>
   <si>
-    <t>(153, 0, 51)</t>
+    <t>(204, 110, 59)</t>
   </si>
   <si>
     <t>occitan</t>
   </si>
   <si>
-    <t>(204, 110, 59)</t>
+    <t>(164, 181, 255)</t>
   </si>
   <si>
     <t>breton</t>
   </si>
   <si>
-    <t>(164, 181, 255)</t>
+    <t>(196, 189, 11)</t>
   </si>
   <si>
     <t>flemish</t>
   </si>
   <si>
-    <t>(196, 189, 11)</t>
+    <t>(196, 11, 189)</t>
   </si>
   <si>
     <t>franconian</t>
   </si>
   <si>
-    <t>(196, 11, 189)</t>
-  </si>
-  <si>
     <t>(204, 51, 51)</t>
   </si>
   <si>
+    <t>english</t>
+  </si>
+  <si>
     <t>(204, 76, 40)</t>
   </si>
   <si>
+    <t>scots</t>
+  </si>
+  <si>
     <t>(210, 150, 255)</t>
   </si>
   <si>
+    <t>norwegian</t>
+  </si>
+  <si>
     <t>(108, 73, 183)</t>
   </si>
   <si>
+    <t>cornish</t>
+  </si>
+  <si>
     <t>(82, 73, 183)</t>
   </si>
   <si>
+    <t>welsh</t>
+  </si>
+  <si>
     <t>(14, 145, 145)</t>
   </si>
   <si>
+    <t>gaelic</t>
+  </si>
+  <si>
     <t>(21, 155, 99)</t>
   </si>
   <si>
+    <t>irish</t>
+  </si>
+  <si>
     <t>(51, 185, 69)</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Scots</t>
-  </si>
-  <si>
-    <t>Norwegian</t>
-  </si>
-  <si>
-    <t>Cornish</t>
-  </si>
-  <si>
-    <t>Welsh</t>
-  </si>
-  <si>
-    <t>Gaelic</t>
-  </si>
-  <si>
-    <t>Irish</t>
-  </si>
-  <si>
-    <t>Hiberno-Norman</t>
+    <t>hiberno_norman</t>
+  </si>
+  <si>
+    <t>(81, 114, 255)</t>
+  </si>
+  <si>
+    <t>arpitan</t>
+  </si>
+  <si>
+    <t>(41, 146, 17)</t>
+  </si>
+  <si>
+    <t>basque</t>
+  </si>
+  <si>
+    <t>(131, 127, 37)</t>
+  </si>
+  <si>
+    <t>walloon</t>
+  </si>
+  <si>
+    <t>(110, 120, 161)</t>
+  </si>
+  <si>
+    <t>picard</t>
+  </si>
+  <si>
+    <t>(243, 13, 13)</t>
+  </si>
+  <si>
+    <t>norman</t>
+  </si>
+  <si>
+    <t>(246, 158, 156)</t>
+  </si>
+  <si>
+    <t>sardinian</t>
+  </si>
+  <si>
+    <t>(223, 137, 0)</t>
+  </si>
+  <si>
+    <t>sicilian</t>
+  </si>
+  <si>
+    <t>(255, 180, 0)</t>
+  </si>
+  <si>
+    <t>calabrian</t>
+  </si>
+  <si>
+    <t>(224, 174, 1)</t>
+  </si>
+  <si>
+    <t>salento</t>
+  </si>
+  <si>
+    <t>(135, 198, 229)</t>
+  </si>
+  <si>
+    <t>cosentina</t>
+  </si>
+  <si>
+    <t>(1, 65, 171)</t>
+  </si>
+  <si>
+    <t>lucana</t>
+  </si>
+  <si>
+    <t>(61, 157, 197)</t>
+  </si>
+  <si>
+    <t>apulian</t>
+  </si>
+  <si>
+    <t>(0, 152,212)</t>
+  </si>
+  <si>
+    <t>neapolitan</t>
+  </si>
+  <si>
+    <t>(156, 204, 224)</t>
+  </si>
+  <si>
+    <t>molisan</t>
+  </si>
+  <si>
+    <t>(43, 97, 159)</t>
+  </si>
+  <si>
+    <t>abruzzese</t>
+  </si>
+  <si>
+    <t>(225, 95, 159)</t>
+  </si>
+  <si>
+    <t>laziale</t>
+  </si>
+  <si>
+    <t>(196, 57, 125)</t>
+  </si>
+  <si>
+    <t>umbrian</t>
+  </si>
+  <si>
+    <t>(185, 37, 111)</t>
+  </si>
+  <si>
+    <t>marche</t>
+  </si>
+  <si>
+    <t>(224, 0, 36)</t>
+  </si>
+  <si>
+    <t>tuscan</t>
+  </si>
+  <si>
+    <t>(167, 164, 1)</t>
+  </si>
+  <si>
+    <t>ligurian</t>
+  </si>
+  <si>
+    <t>(0, 184, 70)</t>
+  </si>
+  <si>
+    <t>piedmontese</t>
+  </si>
+  <si>
+    <t>(170, 213, 186)</t>
+  </si>
+  <si>
+    <t>lombard</t>
+  </si>
+  <si>
+    <t>(187, 232, 113)</t>
+  </si>
+  <si>
+    <t>emilian</t>
+  </si>
+  <si>
+    <t>(130, 221, 19)</t>
+  </si>
+  <si>
+    <t>venetian</t>
+  </si>
+  <si>
+    <t>(52, 218, 194)</t>
+  </si>
+  <si>
+    <t>friulian</t>
+  </si>
+  <si>
+    <t>(26, 153, 26)</t>
+  </si>
+  <si>
+    <t>egyptian</t>
+  </si>
+  <si>
+    <t>(26, 191, 26)</t>
+  </si>
+  <si>
+    <t>bedouin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(77, 242, 77) </t>
+  </si>
+  <si>
+    <t>mashriqi</t>
+  </si>
+  <si>
+    <t>(51, 153, 51)</t>
+  </si>
+  <si>
+    <t>yemeni</t>
+  </si>
+  <si>
+    <t>(140, 228, 10)</t>
+  </si>
+  <si>
+    <t>hejazi</t>
+  </si>
+  <si>
+    <t>(58, 85, 10)</t>
+  </si>
+  <si>
+    <t>hadramaut</t>
+  </si>
+  <si>
+    <t>(58, 159, 97)</t>
+  </si>
+  <si>
+    <t>omani</t>
+  </si>
+  <si>
+    <t>(5, 101, 14)</t>
+  </si>
+  <si>
+    <t>haasalese</t>
+  </si>
+  <si>
+    <t>(170, 213, 85)</t>
+  </si>
+  <si>
+    <t>syrian</t>
+  </si>
+  <si>
+    <t>(255, 155, 25)</t>
+  </si>
+  <si>
+    <t>oghuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(204, 77, 204) </t>
+  </si>
+  <si>
+    <t>greek</t>
+  </si>
+  <si>
+    <t>(128, 51, 128)</t>
+  </si>
+  <si>
+    <t>armenian</t>
+  </si>
+  <si>
+    <t>(153, 77, 204)</t>
+  </si>
+  <si>
+    <t>georgian</t>
+  </si>
+  <si>
+    <t>(38, 70, 10)</t>
+  </si>
+  <si>
+    <t>azeri</t>
+  </si>
+  <si>
+    <t>(5, 255, 5)</t>
+  </si>
+  <si>
+    <t>luri</t>
+  </si>
+  <si>
+    <t>(204, 204, 102)</t>
+  </si>
+  <si>
+    <t>persian</t>
+  </si>
+  <si>
+    <t>(102, 102, 13)</t>
+  </si>
+  <si>
+    <t>baloch</t>
+  </si>
+  <si>
+    <t>(191, 217, 89)</t>
+  </si>
+  <si>
+    <t>daylamite</t>
+  </si>
+  <si>
+    <t>(153, 153, 26)</t>
+  </si>
+  <si>
+    <t>afghan</t>
+  </si>
+  <si>
+    <t>(182, 229, 149)</t>
+  </si>
+  <si>
+    <t>galician</t>
+  </si>
+  <si>
+    <t>(145, 50, 39)</t>
+  </si>
+  <si>
+    <t>asturleonese</t>
+  </si>
+  <si>
+    <t>(206, 161, 78)</t>
+  </si>
+  <si>
+    <t>castilian</t>
+  </si>
+  <si>
+    <t>(192, 64, 21)</t>
+  </si>
+  <si>
+    <t>aragonese</t>
+  </si>
+  <si>
+    <t>(255, 231, 17)</t>
+  </si>
+  <si>
+    <t>catalan</t>
+  </si>
+  <si>
+    <t>(255, 127, 35)</t>
+  </si>
+  <si>
+    <t>valencian</t>
+  </si>
+  <si>
+    <t>(79, 158, 71)</t>
+  </si>
+  <si>
+    <t>andaluza</t>
+  </si>
+  <si>
+    <t>(193, 114, 143)</t>
+  </si>
+  <si>
+    <t>andalusi</t>
+  </si>
+  <si>
+    <t>(70, 119, 38)</t>
+  </si>
+  <si>
+    <t>portuguese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,35 +473,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -197,44 +559,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -264,12 +626,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -308,154 +670,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -463,141 +849,576 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>